--- a/biology/Botanique/Operculina_turpethum/Operculina_turpethum.xlsx
+++ b/biology/Botanique/Operculina_turpethum/Operculina_turpethum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Operculina turpethum est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire de l'Asie tropicale.
-C'est une plante herbacée, vivace, grimpante, aux tiges élancées, volubiles, et aux fleurs à corolle blanche en forme d'entonnoir. Le rhizome a des applications médicinales,  notamment en Inde où il est connu sous le nom de turpeth ou jalap indien, et participe depuis des siècles à la médecine ayurvédique[2]. L'espèce est considérée comme menacée en Inde à cause de la surexploitation[3].
+C'est une plante herbacée, vivace, grimpante, aux tiges élancées, volubiles, et aux fleurs à corolle blanche en forme d'entonnoir. Le rhizome a des applications médicinales,  notamment en Inde où il est connu sous le nom de turpeth ou jalap indien, et participe depuis des siècles à la médecine ayurvédique. L'espèce est considérée comme menacée en Inde à cause de la surexploitation.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (25 janvier 2020)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (25 janvier 2020) :
 Argyreia alulata Miq.
 Convolvulus anceps L.
 Convolvulus turpethum L. (basionyme)
@@ -524,8 +541,43 @@
 Merremia turpethum (L.) Rendle
 Operculina turpethum var. heterophylla Hallier f.
 Spiranthera turpethum (L.) Bojer
-Liste des variétés
-Selon The Plant List            (25 janvier 2020)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Operculina_turpethum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Operculina_turpethum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (25 janvier 2020) :
 Operculina turpethum var. ventricosa (Bertero) Staples &amp; D.F. Austin
 </t>
         </is>
